--- a/bots/crawl_ch/output/bread_coop_2022-12-24.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-24.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12318,7 +12318,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12882,7 +12882,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13592,7 +13592,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14018,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17158,7 +17158,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17227,7 +17227,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17365,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17714,7 +17714,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18842,7 +18842,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18911,7 +18911,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19335,7 +19335,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19404,7 +19404,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19473,7 +19473,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19542,7 +19542,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19820,7 +19820,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20104,7 +20104,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20242,7 +20242,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21100,7 +21100,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21891,7 +21891,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22029,7 +22029,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22455,7 +22455,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23092,7 +23092,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23230,7 +23230,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23299,7 +23299,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23368,7 +23368,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23437,7 +23437,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23579,7 +23579,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23648,7 +23648,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23721,7 +23721,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23794,7 +23794,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23863,7 +23863,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -23932,7 +23932,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24001,7 +24001,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24216,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24352,7 +24352,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24421,7 +24421,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24490,7 +24490,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25334,7 +25334,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25403,7 +25403,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25472,7 +25472,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25541,7 +25541,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25610,7 +25610,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25679,7 +25679,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -25959,7 +25959,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26026,7 +26026,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26095,7 +26095,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26304,7 +26304,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26373,7 +26373,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26442,7 +26442,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26580,7 +26580,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26649,7 +26649,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26718,7 +26718,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26787,7 +26787,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27142,7 +27142,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27424,7 +27424,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27639,7 +27639,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27712,7 +27712,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27856,7 +27856,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -27998,7 +27998,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28422,7 +28422,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28491,7 +28491,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28631,7 +28631,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28698,7 +28698,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28767,7 +28767,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28905,7 +28905,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29047,7 +29047,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29120,7 +29120,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29193,7 +29193,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29260,7 +29260,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29327,7 +29327,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29394,7 +29394,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>
@@ -29463,7 +29463,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-24 06:49:21</t>
+          <t>2022-12-24 12:54:27</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-12-24.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-24.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7354,7 +7354,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12318,7 +12318,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12882,7 +12882,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13450,7 +13450,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13592,7 +13592,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14018,7 +14018,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14440,7 +14440,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14651,7 +14651,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16018,7 +16018,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Kuchenteig -35% Fett - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17158,7 +17158,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17227,7 +17227,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17296,7 +17296,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17365,7 +17365,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17434,7 +17434,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17503,7 +17503,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17714,7 +17714,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18842,7 +18842,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18911,7 +18911,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19335,7 +19335,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19404,7 +19404,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19473,7 +19473,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19542,7 +19542,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19820,7 +19820,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20104,7 +20104,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20242,7 +20242,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21033,7 +21033,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21100,7 +21100,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21891,7 +21891,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22029,7 +22029,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22455,7 +22455,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23092,7 +23092,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23230,7 +23230,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23299,7 +23299,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23368,7 +23368,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23437,7 +23437,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23579,7 +23579,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23648,7 +23648,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23721,7 +23721,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23794,7 +23794,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23863,7 +23863,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23932,7 +23932,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24001,7 +24001,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24216,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24352,7 +24352,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24421,7 +24421,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24490,7 +24490,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25334,7 +25334,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25403,7 +25403,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25472,7 +25472,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25541,7 +25541,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25610,7 +25610,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25679,7 +25679,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25817,7 +25817,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25959,7 +25959,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26026,7 +26026,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26095,7 +26095,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26304,7 +26304,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26373,7 +26373,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26442,7 +26442,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26511,7 +26511,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26580,7 +26580,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26649,7 +26649,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26718,7 +26718,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26787,7 +26787,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27142,7 +27142,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27424,7 +27424,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27639,7 +27639,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27712,7 +27712,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27856,7 +27856,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27998,7 +27998,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28349,7 +28349,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28422,7 +28422,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28491,7 +28491,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28631,7 +28631,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28698,7 +28698,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28767,7 +28767,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28905,7 +28905,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29047,7 +29047,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29120,7 +29120,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29193,7 +29193,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29260,7 +29260,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29327,7 +29327,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29394,7 +29394,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
@@ -29463,7 +29463,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-24 12:54:27</t>
+          <t>2022-12-24 20:49:47</t>
         </is>
       </c>
     </row>
